--- a/courses.xlsx
+++ b/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Navneet\udemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\udemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26ECC6-2031-47B3-B2ED-CE9C15326FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B047579-4672-4F2E-AD16-421230A6F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2808" windowWidth="17280" windowHeight="8832" firstSheet="1" activeTab="2" xr2:uid="{145C8E76-E615-4080-BAC9-6A871EC3A3B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{145C8E76-E615-4080-BAC9-6A871EC3A3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="navneettaneja.ds@gmail.com" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,10 @@
     <t>Hacking</t>
   </si>
   <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>English</t>
+    <t>Best Way to Learn German Language: Full Beginner (A1.1)</t>
+  </si>
+  <si>
+    <t>The English Master Course: English Grammar, English Speaking</t>
   </si>
 </sst>
 </file>
@@ -517,18 +517,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EC847D-F790-4F32-AA2D-5A15D79CEA0B}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="63.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="63.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -584,7 +584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -598,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -612,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -626,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -668,7 +668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -682,7 +682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -696,27 +696,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -738,17 +738,17 @@
       <selection activeCell="A3" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="68.21875" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -790,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -804,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -818,37 +818,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -863,21 +863,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFED1C5-3447-43F3-8DC0-0E9276CC5C63}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -905,7 +905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -919,13 +919,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -933,5 +933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>